--- a/learning_results_after_normalization/DT_results.xlsx
+++ b/learning_results_after_normalization/DT_results.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\PredectingPLMatchesResult\learning_results_after_normalization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7A146C-8798-4239-8E8A-3D4AA8D50F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="5">
   <si>
     <t>max_depth</t>
   </si>
@@ -34,12 +40,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -47,7 +53,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +104,1211 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DT Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.56909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56727272727272726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52727272727272723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53090909090909089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50727272727272721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51727272727272733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50636363636363646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51454545454545442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51090909090909098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48363636363636359</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49272727272727268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C558-432D-A1CB-D71A4A5ADC1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.57545454545454555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56727272727272737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52727272727272723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54181818181818175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51545454545454539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50545454545454549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49545454545454543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51909090909090916</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47363636363636352</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46454545454545448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4872727272727273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C558-432D-A1CB-D71A4A5ADC1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="427774648"/>
+        <c:axId val="427775928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="427774648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427775928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="427775928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427774648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADC3627-E019-4514-8C87-F3638DDBB2E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -144,7 +1354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +1386,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,6 +1438,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,14 +1631,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" activeCellId="2" sqref="G1:G16 I1:I16 M1:M16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +1650,26 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -414,10 +1680,28 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.5754545454545456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.57545454545454555</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>0.56909090909090909</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>0.57545454545454555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -428,10 +1712,28 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.5690909090909091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.56909090909090909</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0.56727272727272726</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0.56727272727272737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -442,10 +1744,28 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.5672727272727274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.56727272727272737</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0.55727272727272725</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0.52727272727272723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -456,10 +1776,28 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.5672727272727273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.56727272727272726</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0.53909090909090907</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0.54181818181818175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -470,10 +1808,28 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>0.5572727272727273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.55727272727272725</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>0.53545454545454541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -484,10 +1840,28 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>0.5418181818181818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.54181818181818175</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>0.53090909090909089</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>0.51545454545454539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -498,10 +1872,28 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>0.5390909090909091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.53909090909090907</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0.50727272727272721</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>0.50545454545454549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -512,10 +1904,28 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>0.5354545454545454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.53545454545454541</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0.52</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0.49545454545454543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -526,10 +1936,28 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>0.5309090909090909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.53090909090909089</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>0.51727272727272733</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>0.49818181818181823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -540,10 +1968,28 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>0.5272727272727272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0.50636363636363646</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>0.49818181818181823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -554,10 +2000,28 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>0.5272727272727272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>0.49181818181818182</v>
+      </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>0.51909090909090916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -570,8 +2034,26 @@
       <c r="D13">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>0.51454545454545442</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>0.48999999999999988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>21</v>
       </c>
@@ -582,10 +2064,28 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>0.5190909090909092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.51909090909090916</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0.51090909090909098</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>0.47363636363636352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -596,10 +2096,28 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>0.5172727272727273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.51727272727272733</v>
+      </c>
+      <c r="G15">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>0.48363636363636359</v>
+      </c>
+      <c r="K15">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>0.46454545454545448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -610,10 +2128,28 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0.5154545454545454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.51545454545454539</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>0.49272727272727268</v>
+      </c>
+      <c r="K16">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>0.4872727272727273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>22</v>
       </c>
@@ -624,10 +2160,10 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>0.5145454545454544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.51454545454545442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>24</v>
       </c>
@@ -638,10 +2174,10 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>0.510909090909091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.51090909090909098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -652,10 +2188,10 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>0.5072727272727272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.50727272727272721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -666,10 +2202,10 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>0.5063636363636365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.50636363636363646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>13</v>
       </c>
@@ -680,10 +2216,10 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>0.5054545454545455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.50545454545454549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -694,10 +2230,10 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0.4981818181818182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.49818181818181823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -708,10 +2244,10 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>0.4981818181818182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.49818181818181823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -722,10 +2258,10 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>0.4954545454545454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.49545454545454543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -736,10 +2272,10 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>0.4927272727272727</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.49272727272727268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -750,10 +2286,10 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>0.4918181818181818</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.49181818181818182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -764,10 +2300,10 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>0.4899999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.48999999999999988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -781,7 +2317,7 @@
         <v>0.4872727272727273</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -792,10 +2328,10 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>0.4836363636363636</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.48363636363636359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -806,10 +2342,10 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>0.4736363636363635</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.47363636363636352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -820,10 +2356,14 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>0.4645454545454545</v>
+        <v>0.46454545454545448</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:M16">
+    <sortCondition ref="K2:K16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>